--- a/script/mOffload_2.xlsx
+++ b/script/mOffload_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\BandwidthUNcertinity\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2F4529-C217-4592-A4CB-0133980A4281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22780B4-B8AC-4CE3-A0BD-AA6A4DE89526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{60046224-DB48-4D55-9DB3-CD82E3B77A28}"/>
   </bookViews>
   <sheets>
     <sheet name="small_t0" sheetId="3" r:id="rId1"/>
@@ -385,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED42AF60-AB6E-40CA-87F9-E205799F0A91}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L83" sqref="A1:L83"/>
     </sheetView>
   </sheetViews>
@@ -402,34 +402,34 @@
         <v>50000</v>
       </c>
       <c r="C1">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D1">
         <v>30</v>
       </c>
       <c r="E1">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -440,34 +440,34 @@
         <v>50000</v>
       </c>
       <c r="C2">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -478,34 +478,34 @@
         <v>50000</v>
       </c>
       <c r="C3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>90</v>
       </c>
       <c r="E3">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -516,34 +516,34 @@
         <v>50000</v>
       </c>
       <c r="C4">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>120</v>
       </c>
       <c r="E4">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -554,34 +554,34 @@
         <v>50000</v>
       </c>
       <c r="C5">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -592,34 +592,34 @@
         <v>50000</v>
       </c>
       <c r="C6">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>180</v>
       </c>
       <c r="E6">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -630,34 +630,34 @@
         <v>50000</v>
       </c>
       <c r="C7">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>210</v>
       </c>
       <c r="E7">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -668,34 +668,34 @@
         <v>50000</v>
       </c>
       <c r="C8">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>240</v>
       </c>
       <c r="E8">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,34 +706,34 @@
         <v>50000</v>
       </c>
       <c r="C9">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>270</v>
       </c>
       <c r="E9">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -744,34 +744,34 @@
         <v>50000</v>
       </c>
       <c r="C10">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>300</v>
       </c>
       <c r="E10">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,34 +782,34 @@
         <v>50000</v>
       </c>
       <c r="C11">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>330</v>
       </c>
       <c r="E11">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -820,34 +820,34 @@
         <v>50000</v>
       </c>
       <c r="C12">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -858,34 +858,34 @@
         <v>50000</v>
       </c>
       <c r="C13">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>390</v>
       </c>
       <c r="E13">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -896,34 +896,34 @@
         <v>50000</v>
       </c>
       <c r="C14">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>420</v>
       </c>
       <c r="E14">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -934,34 +934,34 @@
         <v>50000</v>
       </c>
       <c r="C15">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>450</v>
       </c>
       <c r="E15">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -972,34 +972,34 @@
         <v>50000</v>
       </c>
       <c r="C16">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>480</v>
       </c>
       <c r="E16">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,34 +1010,34 @@
         <v>50000</v>
       </c>
       <c r="C17">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>510</v>
       </c>
       <c r="E17">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1048,34 +1048,34 @@
         <v>50000</v>
       </c>
       <c r="C18">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>540</v>
       </c>
       <c r="E18">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,34 +1086,34 @@
         <v>50000</v>
       </c>
       <c r="C19">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>570</v>
       </c>
       <c r="E19">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1124,34 +1124,34 @@
         <v>50000</v>
       </c>
       <c r="C20">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <v>600</v>
       </c>
       <c r="E20">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1162,34 +1162,34 @@
         <v>50000</v>
       </c>
       <c r="C22">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L22">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1200,34 +1200,34 @@
         <v>50000</v>
       </c>
       <c r="C23">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>60</v>
       </c>
       <c r="E23">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G23">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L23">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1238,34 +1238,34 @@
         <v>50000</v>
       </c>
       <c r="C24">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>90</v>
       </c>
       <c r="E24">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G24">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L24">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1276,34 +1276,34 @@
         <v>50000</v>
       </c>
       <c r="C25">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>120</v>
       </c>
       <c r="E25">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G25">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L25">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1314,34 +1314,34 @@
         <v>50000</v>
       </c>
       <c r="C26">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>150</v>
       </c>
       <c r="E26">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G26">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L26">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1352,34 +1352,34 @@
         <v>50000</v>
       </c>
       <c r="C27">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>180</v>
       </c>
       <c r="E27">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L27">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,34 +1390,34 @@
         <v>50000</v>
       </c>
       <c r="C28">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>210</v>
       </c>
       <c r="E28">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L28">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1428,34 +1428,34 @@
         <v>50000</v>
       </c>
       <c r="C29">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>240</v>
       </c>
       <c r="E29">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G29">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L29">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1466,34 +1466,34 @@
         <v>50000</v>
       </c>
       <c r="C30">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>270</v>
       </c>
       <c r="E30">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G30">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L30">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1504,34 +1504,34 @@
         <v>50000</v>
       </c>
       <c r="C31">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>300</v>
       </c>
       <c r="E31">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L31">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1542,34 +1542,34 @@
         <v>50000</v>
       </c>
       <c r="C32">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <v>330</v>
       </c>
       <c r="E32">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G32">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L32">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1580,34 +1580,34 @@
         <v>50000</v>
       </c>
       <c r="C33">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>360</v>
       </c>
       <c r="E33">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G33">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L33">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1618,34 +1618,34 @@
         <v>50000</v>
       </c>
       <c r="C34">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>390</v>
       </c>
       <c r="E34">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G34">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L34">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1656,34 +1656,34 @@
         <v>50000</v>
       </c>
       <c r="C35">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>420</v>
       </c>
       <c r="E35">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G35">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L35">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1694,34 +1694,34 @@
         <v>50000</v>
       </c>
       <c r="C36">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <v>450</v>
       </c>
       <c r="E36">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G36">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L36">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1732,34 +1732,34 @@
         <v>50000</v>
       </c>
       <c r="C37">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>480</v>
       </c>
       <c r="E37">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G37">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L37">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1770,34 +1770,34 @@
         <v>50000</v>
       </c>
       <c r="C38">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>510</v>
       </c>
       <c r="E38">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L38">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1808,34 +1808,34 @@
         <v>50000</v>
       </c>
       <c r="C39">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <v>540</v>
       </c>
       <c r="E39">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G39">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L39">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1846,34 +1846,34 @@
         <v>50000</v>
       </c>
       <c r="C40">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>570</v>
       </c>
       <c r="E40">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F40">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G40">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L40">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1884,34 +1884,34 @@
         <v>50000</v>
       </c>
       <c r="C41">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D41">
         <v>600</v>
       </c>
       <c r="E41">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L41">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1922,34 +1922,34 @@
         <v>50000</v>
       </c>
       <c r="C43">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
       <c r="E43">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L43">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1960,34 +1960,34 @@
         <v>50000</v>
       </c>
       <c r="C44">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
       <c r="E44">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L44">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1998,34 +1998,34 @@
         <v>50000</v>
       </c>
       <c r="C45">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>90</v>
       </c>
       <c r="E45">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F45">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K45">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L45">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2036,34 +2036,34 @@
         <v>50000</v>
       </c>
       <c r="C46">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <v>120</v>
       </c>
       <c r="E46">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L46">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2074,34 +2074,34 @@
         <v>50000</v>
       </c>
       <c r="C47">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <v>150</v>
       </c>
       <c r="E47">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F47">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K47">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L47">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,34 +2112,34 @@
         <v>50000</v>
       </c>
       <c r="C48">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <v>180</v>
       </c>
       <c r="E48">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K48">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L48">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2150,34 +2150,34 @@
         <v>50000</v>
       </c>
       <c r="C49">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <v>210</v>
       </c>
       <c r="E49">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L49">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2188,34 +2188,34 @@
         <v>50000</v>
       </c>
       <c r="C50">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>240</v>
       </c>
       <c r="E50">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K50">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L50">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2226,34 +2226,34 @@
         <v>50000</v>
       </c>
       <c r="C51">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D51">
         <v>270</v>
       </c>
       <c r="E51">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J51">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K51">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L51">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2264,34 +2264,34 @@
         <v>50000</v>
       </c>
       <c r="C52">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>300</v>
       </c>
       <c r="E52">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G52">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K52">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L52">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2302,34 +2302,34 @@
         <v>50000</v>
       </c>
       <c r="C53">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D53">
         <v>330</v>
       </c>
       <c r="E53">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K53">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L53">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2340,34 +2340,34 @@
         <v>50000</v>
       </c>
       <c r="C54">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>360</v>
       </c>
       <c r="E54">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L54">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2378,34 +2378,34 @@
         <v>50000</v>
       </c>
       <c r="C55">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D55">
         <v>390</v>
       </c>
       <c r="E55">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K55">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L55">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2416,34 +2416,34 @@
         <v>50000</v>
       </c>
       <c r="C56">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D56">
         <v>420</v>
       </c>
       <c r="E56">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K56">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L56">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,34 +2454,34 @@
         <v>50000</v>
       </c>
       <c r="C57">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <v>450</v>
       </c>
       <c r="E57">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K57">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L57">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2492,34 +2492,34 @@
         <v>50000</v>
       </c>
       <c r="C58">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <v>480</v>
       </c>
       <c r="E58">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K58">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L58">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2530,34 +2530,34 @@
         <v>50000</v>
       </c>
       <c r="C59">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <v>510</v>
       </c>
       <c r="E59">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K59">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L59">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2568,34 +2568,34 @@
         <v>50000</v>
       </c>
       <c r="C60">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D60">
         <v>540</v>
       </c>
       <c r="E60">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L60">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2606,34 +2606,34 @@
         <v>50000</v>
       </c>
       <c r="C61">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>570</v>
       </c>
       <c r="E61">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L61">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2644,34 +2644,34 @@
         <v>50000</v>
       </c>
       <c r="C62">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>600</v>
       </c>
       <c r="E62">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G62">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K62">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L62">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2682,34 +2682,34 @@
         <v>50000</v>
       </c>
       <c r="C64">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
       <c r="E64">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G64">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L64">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2720,34 +2720,34 @@
         <v>50000</v>
       </c>
       <c r="C65">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>60</v>
       </c>
       <c r="E65">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F65">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G65">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L65">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2758,34 +2758,34 @@
         <v>50000</v>
       </c>
       <c r="C66">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D66">
         <v>90</v>
       </c>
       <c r="E66">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F66">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G66">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L66">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2796,34 +2796,34 @@
         <v>50000</v>
       </c>
       <c r="C67">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <v>120</v>
       </c>
       <c r="E67">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G67">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L67">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2834,34 +2834,34 @@
         <v>50000</v>
       </c>
       <c r="C68">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D68">
         <v>150</v>
       </c>
       <c r="E68">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G68">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L68">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2872,34 +2872,34 @@
         <v>50000</v>
       </c>
       <c r="C69">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <v>180</v>
       </c>
       <c r="E69">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G69">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L69">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -2910,34 +2910,34 @@
         <v>50000</v>
       </c>
       <c r="C70">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>210</v>
       </c>
       <c r="E70">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L70">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2948,34 +2948,34 @@
         <v>50000</v>
       </c>
       <c r="C71">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D71">
         <v>240</v>
       </c>
       <c r="E71">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G71">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L71">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -2986,34 +2986,34 @@
         <v>50000</v>
       </c>
       <c r="C72">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D72">
         <v>270</v>
       </c>
       <c r="E72">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F72">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G72">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L72">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3024,34 +3024,34 @@
         <v>50000</v>
       </c>
       <c r="C73">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>300</v>
       </c>
       <c r="E73">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F73">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L73">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3062,34 +3062,34 @@
         <v>50000</v>
       </c>
       <c r="C74">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D74">
         <v>330</v>
       </c>
       <c r="E74">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G74">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L74">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3100,34 +3100,34 @@
         <v>50000</v>
       </c>
       <c r="C75">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>360</v>
       </c>
       <c r="E75">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L75">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3138,34 +3138,34 @@
         <v>50000</v>
       </c>
       <c r="C76">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D76">
         <v>390</v>
       </c>
       <c r="E76">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F76">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G76">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L76">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3176,34 +3176,34 @@
         <v>50000</v>
       </c>
       <c r="C77">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D77">
         <v>420</v>
       </c>
       <c r="E77">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G77">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L77">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3214,34 +3214,34 @@
         <v>50000</v>
       </c>
       <c r="C78">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D78">
         <v>450</v>
       </c>
       <c r="E78">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F78">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G78">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L78">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3252,34 +3252,34 @@
         <v>50000</v>
       </c>
       <c r="C79">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D79">
         <v>480</v>
       </c>
       <c r="E79">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F79">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G79">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L79">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,34 +3290,34 @@
         <v>50000</v>
       </c>
       <c r="C80">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D80">
         <v>510</v>
       </c>
       <c r="E80">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G80">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L80">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3328,34 +3328,34 @@
         <v>50000</v>
       </c>
       <c r="C81">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D81">
         <v>540</v>
       </c>
       <c r="E81">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F81">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L81">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3366,34 +3366,34 @@
         <v>50000</v>
       </c>
       <c r="C82">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D82">
         <v>570</v>
       </c>
       <c r="E82">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G82">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K82">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L82">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3404,34 +3404,34 @@
         <v>50000</v>
       </c>
       <c r="C83">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="D83">
         <v>600</v>
       </c>
       <c r="E83">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G83">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L83">
-        <v>1024</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8363,7 +8363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63591A70-7D12-407F-B009-D3C34039C173}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L41" sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
